--- a/BOM/sunon_testkit_bom_220120.xlsx
+++ b/BOM/sunon_testkit_bom_220120.xlsx
@@ -399,22 +399,158 @@
         <name val="Segoe UI"/>
         <scheme val="none"/>
       </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor indexed="22"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
+      <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
         <right style="thin">
           <color indexed="64"/>
         </right>
-        <top/>
-        <bottom/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <name val="Segoe UI"/>
+        <scheme val="none"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <name val="Segoe UI"/>
+        <scheme val="none"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <name val="Segoe UI"/>
+        <scheme val="none"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <name val="Segoe UI"/>
+        <scheme val="none"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
       </border>
     </dxf>
     <dxf>
@@ -450,158 +586,22 @@
         <name val="Segoe UI"/>
         <scheme val="none"/>
       </font>
-      <border diagonalUp="0" diagonalDown="0">
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
         <right style="thin">
           <color indexed="64"/>
         </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color rgb="FF000000"/>
-        <name val="Segoe UI"/>
-        <scheme val="none"/>
-      </font>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color rgb="FF000000"/>
-        <name val="Segoe UI"/>
-        <scheme val="none"/>
-      </font>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color rgb="FF000000"/>
-        <name val="Segoe UI"/>
-        <scheme val="none"/>
-      </font>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color rgb="FF000000"/>
-        <name val="Segoe UI"/>
-        <scheme val="none"/>
-      </font>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
+        <top/>
+        <bottom/>
       </border>
     </dxf>
   </dxfs>
@@ -675,14 +675,14 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表格1" displayName="表格1" ref="A1:F15" totalsRowShown="0" headerRowDxfId="1" dataDxfId="2" tableBorderDxfId="8">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表格1" displayName="表格1" ref="A1:F15" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7" tableBorderDxfId="6">
   <autoFilter ref="A1:F15"/>
   <tableColumns count="6">
-    <tableColumn id="1" name="Designator" dataDxfId="7"/>
-    <tableColumn id="2" name="Quantity" dataDxfId="6"/>
-    <tableColumn id="3" name="Value" dataDxfId="5"/>
-    <tableColumn id="4" name="Voltage" dataDxfId="4"/>
-    <tableColumn id="5" name="LibRef" dataDxfId="3"/>
+    <tableColumn id="1" name="Designator" dataDxfId="5"/>
+    <tableColumn id="2" name="Quantity" dataDxfId="4"/>
+    <tableColumn id="3" name="Value" dataDxfId="3"/>
+    <tableColumn id="4" name="Voltage" dataDxfId="2"/>
+    <tableColumn id="5" name="LibRef" dataDxfId="1"/>
     <tableColumn id="6" name="Note" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -979,7 +979,7 @@
   <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
